--- a/mednickdb_pyparse/stagemaps/SpencerLab_stagemap.xlsx
+++ b/mednickdb_pyparse/stagemaps/SpencerLab_stagemap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>mapsfrom</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>REM</t>
+  </si>
+  <si>
+    <t>stage1</t>
+  </si>
+  <si>
+    <t>stage2</t>
+  </si>
+  <si>
+    <t>sws</t>
+  </si>
+  <si>
+    <t>rem</t>
   </si>
 </sst>
 </file>
@@ -404,8 +416,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>-1</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.5">
@@ -415,8 +427,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.5">
@@ -426,8 +438,8 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.5">
@@ -437,8 +449,8 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.5">
@@ -448,8 +460,8 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.5">
@@ -459,8 +471,8 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>4</v>
+      <c r="C7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
